--- a/inventario/Plugin/Excel/Ingresos/Compra/Ingresos De la Compra.xlsx
+++ b/inventario/Plugin/Excel/Ingresos/Compra/Ingresos De la Compra.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>N° Compra</t>
   </si>
@@ -35,7 +35,7 @@
     <t>U/M</t>
   </si>
   <si>
-    <t>Cantidad</t>
+    <t>Stock</t>
   </si>
   <si>
     <t>Costo Unitario</t>
@@ -47,28 +47,16 @@
     <t>Mantenimiento</t>
   </si>
   <si>
-    <t>Admin Master (Administrador)</t>
-  </si>
-  <si>
-    <t>PINTURA EPOXICA COLOR AQUA INCLUYE CATALIZADOR</t>
-  </si>
-  <si>
-    <t>Galon</t>
-  </si>
-  <si>
-    <t>2022-10-04</t>
-  </si>
-  <si>
-    <t>Baltazar Alexander Marinero Perez (Cliente)</t>
-  </si>
-  <si>
-    <t>CUERPO TERMINAL DE 1</t>
+    <t>Baltazar Alexander Marinero Perez</t>
+  </si>
+  <si>
+    <t>CAPA IMPERMEABLES DE 1 PIEZA VARIOS COLORES Y TALLAS</t>
   </si>
   <si>
     <t>C/U</t>
   </si>
   <si>
-    <t>2022-10-05</t>
+    <t>2022-10-10</t>
   </si>
 </sst>
 </file>
@@ -404,7 +392,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,7 +442,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -463,7 +451,7 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>70213188</v>
+        <v>80804065</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -472,42 +460,13 @@
         <v>12</v>
       </c>
       <c r="G2">
-        <v>80.9</v>
+        <v>11.95</v>
       </c>
       <c r="H2">
-        <v>0.0</v>
+        <v>11.95</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3">
-        <v>70205603</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>2.2</v>
-      </c>
-      <c r="H3">
-        <v>0.0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
